--- a/supporting_data/local/rietdiep/Services (Reitdiep - Groningen).xlsx
+++ b/supporting_data/local/rietdiep/Services (Reitdiep - Groningen).xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10360" windowWidth="51200" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="-10360" windowWidth="25600" windowHeight="28360" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
-    <sheet name="Analyse" sheetId="6" r:id="rId2"/>
-    <sheet name=".yml" sheetId="2" r:id="rId3"/>
+    <sheet name="Notes" sheetId="7" r:id="rId2"/>
+    <sheet name="Analyse" sheetId="6" r:id="rId3"/>
+    <sheet name=".yml" sheetId="2" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="Eff_cooking_biomass">[1]technical_specs!$P$51</definedName>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="185">
   <si>
     <t>Sector</t>
   </si>
@@ -611,6 +612,36 @@
   </si>
   <si>
     <t>Geen geothermie</t>
+  </si>
+  <si>
+    <t>Electricity use services Nieuw-West (wijk)</t>
+  </si>
+  <si>
+    <t>Electricity use services Reitdiep</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Full load hours PV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed capacity Solar PV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value </t>
+  </si>
+  <si>
+    <t>Klimaatmonitor: https://klimaatmonitor.databank.nl/Jive?workspace_guid=0260472e-5a67-45b9-9097-f3173bf02a73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity demand services </t>
+  </si>
+  <si>
+    <t>Geschaald Nieuw-West + solar PV</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1290,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1614,6 +1645,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -2266,8 +2298,8 @@
   </sheetPr>
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2602,12 +2634,10 @@
       </c>
       <c r="E22" s="122"/>
       <c r="F22" s="48">
-        <f>G22 * (F15/F16)</f>
-        <v>4360506.3291139239</v>
-      </c>
-      <c r="G22" s="201">
-        <v>21530000</v>
-      </c>
+        <f>Notes!D11</f>
+        <v>4461980.0091139236</v>
+      </c>
+      <c r="G22" s="201"/>
       <c r="H22" s="8" t="s">
         <v>172</v>
       </c>
@@ -4223,6 +4253,131 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="193" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="193" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="193" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="193" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>21530000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="204">
+        <f>Dashboard!F18</f>
+        <v>117.04</v>
+      </c>
+      <c r="F5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6">
+        <f>D5*Dashboard!F111</f>
+        <v>101473.68000000001</v>
+      </c>
+      <c r="F6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="204">
+        <v>160</v>
+      </c>
+      <c r="F8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="204">
+        <v>790</v>
+      </c>
+      <c r="F9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="193" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="193" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="193"/>
+      <c r="D11" s="193">
+        <f>D4 * (D8/D9) +D6</f>
+        <v>4461980.0091139236</v>
+      </c>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -4518,7 +4673,7 @@
       </c>
       <c r="E11" s="130">
         <f>Dashboard!F22*Dashboard!F116</f>
-        <v>15.697822784810125</v>
+        <v>16.063128032810123</v>
       </c>
       <c r="F11" s="130">
         <f>Dashboard!F26</f>
@@ -4609,7 +4764,7 @@
       </c>
       <c r="E14" s="77">
         <f>E11*Dashboard!F58</f>
-        <v>5.0233032911392403E-2</v>
+        <v>5.1402009704992396E-2</v>
       </c>
       <c r="F14" s="77">
         <f>F11</f>
@@ -4635,7 +4790,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6">
         <f>SUM(M17:M25)</f>
-        <v>24.35478802474735</v>
+        <v>24.365308815889751</v>
       </c>
       <c r="N14" s="61"/>
       <c r="O14" s="4"/>
@@ -4739,7 +4894,7 @@
       <c r="D18" s="166"/>
       <c r="E18" s="166">
         <f>(Dashboard!F79/L18)/(Dashboard!F$79/L$18+Dashboard!F$80/L$21)*E$14</f>
-        <v>5.0233032911392403E-2</v>
+        <v>5.1402009704992396E-2</v>
       </c>
       <c r="F18" s="166"/>
       <c r="G18" s="166"/>
@@ -4748,22 +4903,22 @@
       <c r="J18" s="167"/>
       <c r="K18" s="79">
         <f t="shared" ref="K18:K52" si="2">SUM(D18:J18)</f>
-        <v>5.0233032911392403E-2</v>
+        <v>5.1402009704992396E-2</v>
       </c>
       <c r="L18">
         <v>9</v>
       </c>
       <c r="M18" s="4">
         <f>L18*SUM(D18:J18)</f>
-        <v>0.45209729620253164</v>
+        <v>0.46261808734493159</v>
       </c>
       <c r="N18" s="109">
         <f t="shared" si="0"/>
-        <v>1.8562973972228673E-2</v>
+        <v>1.8986752470103594E-2</v>
       </c>
       <c r="O18" s="147">
         <f t="shared" si="1"/>
-        <v>2.228404149506872E-3</v>
+        <v>2.2801432725787375E-3</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -4964,11 +5119,11 @@
       </c>
       <c r="N23" s="109">
         <f t="shared" si="0"/>
-        <v>0.96541072375925929</v>
+        <v>0.96499386532056464</v>
       </c>
       <c r="O23" s="147">
         <f t="shared" si="1"/>
-        <v>0.97754466846091781</v>
+        <v>0.97749397819861716</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -5005,11 +5160,11 @@
       </c>
       <c r="N24" s="109">
         <f t="shared" si="0"/>
-        <v>4.9302040945013084E-3</v>
+        <v>4.9280752625640821E-3</v>
       </c>
       <c r="O24" s="147">
         <f t="shared" si="1"/>
-        <v>5.6069954663429764E-3</v>
+        <v>5.6067047174083468E-3</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -5046,11 +5201,11 @@
       </c>
       <c r="N25" s="109">
         <f t="shared" si="0"/>
-        <v>1.1096098174010624E-2</v>
+        <v>1.1091306946767561E-2</v>
       </c>
       <c r="O25" s="147">
         <f t="shared" si="1"/>
-        <v>1.4619931923232353E-2</v>
+        <v>1.461917381139571E-2</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -5138,7 +5293,7 @@
       </c>
       <c r="E29" s="77">
         <f>E11*Dashboard!F59</f>
-        <v>2.6026990177215188</v>
+        <v>2.6632666278399184</v>
       </c>
       <c r="F29" s="77"/>
       <c r="G29" s="77"/>
@@ -5149,7 +5304,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6">
         <f>SUM(M31:M33)</f>
-        <v>10.964807391731453</v>
+        <v>11.219970272496331</v>
       </c>
       <c r="N29" s="172"/>
       <c r="O29" s="83"/>
@@ -5231,7 +5386,7 @@
       <c r="D32" s="166"/>
       <c r="E32" s="166">
         <f>(Dashboard!F99/L32)/(Dashboard!F$99/L$32+Dashboard!F$100/L$33)*E$29</f>
-        <v>3.6934088056358581E-2</v>
+        <v>3.7793584075777112E-2</v>
       </c>
       <c r="F32" s="166"/>
       <c r="G32" s="166"/>
@@ -5240,22 +5395,22 @@
       <c r="J32" s="167"/>
       <c r="K32" s="79">
         <f t="shared" si="2"/>
-        <v>3.6934088056358581E-2</v>
+        <v>3.7793584075777112E-2</v>
       </c>
       <c r="L32">
         <v>19</v>
       </c>
       <c r="M32" s="4">
         <f t="shared" si="3"/>
-        <v>0.70174767307081309</v>
+        <v>0.71807809743976514</v>
       </c>
       <c r="N32" s="109">
         <f>M32/SUM($M$31:$M$33)</f>
-        <v>6.4000000000000015E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="O32" s="147">
         <f>SUM(D32:J32)/SUM($D$31:$J$33)</f>
-        <v>1.4190687361419069E-2</v>
+        <v>1.4190687361419065E-2</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -5272,7 +5427,7 @@
       <c r="D33" s="168"/>
       <c r="E33" s="168">
         <f>(Dashboard!F100/L33)/(Dashboard!F$99/L$32+Dashboard!F$100/L$33)*E$29</f>
-        <v>2.5657649296651601</v>
+        <v>2.6254730437641416</v>
       </c>
       <c r="F33" s="168"/>
       <c r="G33" s="168"/>
@@ -5281,14 +5436,14 @@
       <c r="J33" s="169"/>
       <c r="K33" s="79">
         <f t="shared" si="2"/>
-        <v>2.5657649296651601</v>
+        <v>2.6254730437641416</v>
       </c>
       <c r="L33" s="4">
         <v>4</v>
       </c>
       <c r="M33" s="4">
         <f t="shared" si="3"/>
-        <v>10.26305971866064</v>
+        <v>10.501892175056566</v>
       </c>
       <c r="N33" s="109">
         <f>M33/SUM($M$31:$M$33)</f>
@@ -5403,7 +5558,7 @@
       <c r="D38" s="77"/>
       <c r="E38" s="77">
         <f>E11*Dashboard!F60</f>
-        <v>5.6041227341772144</v>
+        <v>5.7345367077132137</v>
       </c>
       <c r="F38" s="77"/>
       <c r="G38" s="77"/>
@@ -5414,7 +5569,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="173">
         <f>SUM(M40:M42)</f>
-        <v>1.0087835855139968</v>
+        <v>1.032259066345715</v>
       </c>
       <c r="N38" s="172"/>
       <c r="O38" s="83"/>
@@ -5455,7 +5610,7 @@
       <c r="D40" s="164"/>
       <c r="E40" s="164">
         <f>(Dashboard!F104/L40)/(Dashboard!F$104/L$40+Dashboard!F$105/L$41+Dashboard!F$106/L$42)*E$38/0.961/0.947</f>
-        <v>0.32785466529204899</v>
+        <v>0.33548419656235734</v>
       </c>
       <c r="F40" s="164"/>
       <c r="G40" s="164"/>
@@ -5464,14 +5619,14 @@
       <c r="J40" s="165"/>
       <c r="K40" s="79">
         <f t="shared" si="2"/>
-        <v>0.32785466529204899</v>
+        <v>0.33548419656235734</v>
       </c>
       <c r="L40" s="1">
         <v>0.2</v>
       </c>
       <c r="M40" s="90">
         <f>L40*SUM(D40:J40)</f>
-        <v>6.5570933058409803E-2</v>
+        <v>6.7096839312471471E-2</v>
       </c>
       <c r="N40" s="109">
         <f>M40/SUM($M$40:$M$42)</f>
@@ -5479,7 +5634,7 @@
       </c>
       <c r="O40" s="147">
         <f>E40/SUM($D$40:$J$42)</f>
-        <v>5.324110941730565E-2</v>
+        <v>5.3241109417305636E-2</v>
       </c>
       <c r="P40" s="73"/>
       <c r="Q40" s="91"/>
@@ -5496,7 +5651,7 @@
       <c r="D41" s="166"/>
       <c r="E41" s="166">
         <f>(Dashboard!F105/L41)/(Dashboard!F$104/L$40+Dashboard!F$105/L$41+Dashboard!F$106/L$42)*E$38/0.961/0.947</f>
-        <v>3.5867860818275435E-2</v>
+        <v>3.6702544581180968E-2</v>
       </c>
       <c r="F41" s="166"/>
       <c r="G41" s="166"/>
@@ -5505,14 +5660,14 @@
       <c r="J41" s="167"/>
       <c r="K41" s="79">
         <f t="shared" si="2"/>
-        <v>3.5867860818275435E-2</v>
+        <v>3.6702544581180968E-2</v>
       </c>
       <c r="L41" s="1">
         <v>0.45</v>
       </c>
       <c r="M41" s="90">
         <f>L41*SUM(D41:J41)</f>
-        <v>1.6140537368223948E-2</v>
+        <v>1.6516145061531436E-2</v>
       </c>
       <c r="N41" s="109">
         <f t="shared" ref="N41:N42" si="4">M41/SUM($M$40:$M$42)</f>
@@ -5520,7 +5675,7 @@
       </c>
       <c r="O41" s="147">
         <f>E41/SUM($D$40:$J$42)</f>
-        <v>5.824668380696685E-3</v>
+        <v>5.8246683806966841E-3</v>
       </c>
       <c r="P41" s="92"/>
       <c r="Q41" s="91"/>
@@ -5537,7 +5692,7 @@
       <c r="D42" s="168"/>
       <c r="E42" s="168">
         <f>(Dashboard!F106/L42)/(Dashboard!F$104/L$40+Dashboard!F$105/L$41+Dashboard!F$106/L$42)*E$38/0.961/0.947</f>
-        <v>5.7942007192960183</v>
+        <v>5.9290380123231996</v>
       </c>
       <c r="F42" s="168"/>
       <c r="G42" s="168"/>
@@ -5546,14 +5701,14 @@
       <c r="J42" s="169"/>
       <c r="K42" s="79">
         <f t="shared" si="2"/>
-        <v>5.7942007192960183</v>
+        <v>5.9290380123231996</v>
       </c>
       <c r="L42" s="1">
         <v>0.16</v>
       </c>
       <c r="M42" s="90">
         <f>L42*SUM(D42:J42)</f>
-        <v>0.92707211508736298</v>
+        <v>0.94864608197171196</v>
       </c>
       <c r="N42" s="109">
         <f t="shared" si="4"/>
@@ -5561,7 +5716,7 @@
       </c>
       <c r="O42" s="147">
         <f>E42/SUM($D$40:$J$42)</f>
-        <v>0.94093422220199774</v>
+        <v>0.94093422220199763</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="91"/>
@@ -5649,7 +5804,7 @@
       </c>
       <c r="E46" s="133">
         <f>E11*Dashboard!F61</f>
-        <v>7.4407679999999985</v>
+        <v>7.6139226875519981</v>
       </c>
       <c r="F46" s="131"/>
       <c r="G46" s="133">
@@ -5669,7 +5824,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="173">
         <f>SUM(M48:M52)</f>
-        <v>8.8947091733601393</v>
+        <v>9.0678638609121389</v>
       </c>
       <c r="N46" s="172"/>
       <c r="O46" s="83"/>
@@ -5730,7 +5885,7 @@
       </c>
       <c r="N48" s="109">
         <f>M48/SUM($M$48:$M$52)</f>
-        <v>2.5039636974040083E-3</v>
+        <v>2.4561494537942759E-3</v>
       </c>
       <c r="O48" s="147">
         <f>E48/SUM($D$48:$J$52)</f>
@@ -5771,7 +5926,7 @@
       </c>
       <c r="N49" s="109">
         <f>M49/SUM($M$48:$M$52)</f>
-        <v>8.4336032988007403E-2</v>
+        <v>8.2725600843744432E-2</v>
       </c>
       <c r="O49" s="147">
         <f>E49/SUM($D$48:$J$52)</f>
@@ -5792,7 +5947,7 @@
       <c r="D50" s="166"/>
       <c r="E50" s="166">
         <f>E46</f>
-        <v>7.4407679999999985</v>
+        <v>7.6139226875519981</v>
       </c>
       <c r="F50" s="166"/>
       <c r="G50" s="166"/>
@@ -5801,22 +5956,22 @@
       <c r="J50" s="167"/>
       <c r="K50" s="79">
         <f t="shared" si="2"/>
-        <v>7.4407679999999985</v>
+        <v>7.6139226875519981</v>
       </c>
       <c r="L50" s="4">
         <v>1</v>
       </c>
       <c r="M50" s="90">
         <f t="shared" si="5"/>
-        <v>7.4407679999999985</v>
+        <v>7.6139226875519981</v>
       </c>
       <c r="N50" s="109">
         <f>M50/SUM($M$48:$M$52)</f>
-        <v>0.83653864954744916</v>
+        <v>0.8396600130238514</v>
       </c>
       <c r="O50" s="147">
         <f>E50/SUM($D$48:$J$52)</f>
-        <v>0.83653864954744916</v>
+        <v>0.8396600130238514</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -5853,7 +6008,7 @@
       </c>
       <c r="N51" s="109">
         <f>M51/SUM($M$48:$M$52)</f>
-        <v>7.662135376713948E-2</v>
+        <v>7.5158236678609908E-2</v>
       </c>
       <c r="O51" s="147">
         <f>E51/SUM($D$48:$J$52)</f>
@@ -6054,7 +6209,7 @@
       </c>
       <c r="E58" s="102">
         <f t="shared" si="6"/>
-        <v>31.899213047937984</v>
+        <v>32.641542101668776</v>
       </c>
       <c r="F58" s="102">
         <f t="shared" si="6"/>
@@ -6099,7 +6254,7 @@
       </c>
       <c r="E59" s="102">
         <f t="shared" si="7"/>
-        <v>-31.899213047937984</v>
+        <v>-32.641542101668776</v>
       </c>
       <c r="F59" s="102">
         <f t="shared" si="7"/>
@@ -6494,15 +6649,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6545,14 +6700,14 @@
       </c>
       <c r="B5">
         <f>Analyse!N48</f>
-        <v>2.5039636974040083E-3</v>
+        <v>2.4561494537942759E-3</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="str">
         <f>"  " &amp;A5 &amp; B5*C5</f>
-        <v xml:space="preserve">  :"buildings_appliances_coal-buildings_useful_demand_for_appliances@not_defined": 0.00250396369740401</v>
+        <v xml:space="preserve">  :"buildings_appliances_coal-buildings_useful_demand_for_appliances@not_defined": 0.00245614945379428</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6561,14 +6716,14 @@
       </c>
       <c r="B6">
         <f>Analyse!N49</f>
-        <v>8.4336032988007403E-2</v>
+        <v>8.2725600843744432E-2</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ref="D6:D9" si="0">"  " &amp;A6 &amp; B6*C6</f>
-        <v xml:space="preserve">  :"buildings_appliances_crude_oil-buildings_useful_demand_for_appliances@not_defined": 0.0843360329880074</v>
+        <v xml:space="preserve">  :"buildings_appliances_crude_oil-buildings_useful_demand_for_appliances@not_defined": 0.0827256008437444</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6577,14 +6732,14 @@
       </c>
       <c r="B7">
         <f>Analyse!N50</f>
-        <v>0.83653864954744916</v>
+        <v>0.8396600130238514</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  :"buildings_appliances_electricity-buildings_useful_demand_for_appliances@not_defined": 0.836538649547449</v>
+        <v xml:space="preserve">  :"buildings_appliances_electricity-buildings_useful_demand_for_appliances@not_defined": 0.839660013023851</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6593,14 +6748,14 @@
       </c>
       <c r="B8">
         <f>Analyse!N51</f>
-        <v>7.662135376713948E-2</v>
+        <v>7.5158236678609908E-2</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  :"buildings_appliances_network_gas-buildings_useful_demand_for_appliances@not_defined": 0.0766213537671395</v>
+        <v xml:space="preserve">  :"buildings_appliances_network_gas-buildings_useful_demand_for_appliances@not_defined": 0.0751582366786099</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6641,7 +6796,7 @@
       </c>
       <c r="B11">
         <f>Analyse!N32</f>
-        <v>6.4000000000000015E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -6772,14 +6927,14 @@
       </c>
       <c r="B19">
         <f>Analyse!N18</f>
-        <v>1.8562973972228673E-2</v>
+        <v>1.8986752470103594E-2</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" ref="D19:D26" si="3">"  " &amp;A19 &amp; B19*C19</f>
-        <v xml:space="preserve">  :"buildings_space_heater_collective_heatpump_water_water_ts_electricity-buildings_useful_demand_for_space_heating_after_insulation@useable_heat": 0.0185629739722287</v>
+        <v xml:space="preserve">  :"buildings_space_heater_collective_heatpump_water_water_ts_electricity-buildings_useful_demand_for_space_heating_after_insulation@useable_heat": 0.0189867524701036</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -6852,14 +7007,14 @@
       </c>
       <c r="B24">
         <f>Analyse!N23</f>
-        <v>0.96541072375925929</v>
+        <v>0.96499386532056464</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  :"buildings_space_heater_network_gas-buildings_useful_demand_for_space_heating_after_insulation@useable_heat": 0.965410723759259</v>
+        <v xml:space="preserve">  :"buildings_space_heater_network_gas-buildings_useful_demand_for_space_heating_after_insulation@useable_heat": 0.964993865320565</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -6868,14 +7023,14 @@
       </c>
       <c r="B25">
         <f>Analyse!N24</f>
-        <v>4.9302040945013084E-3</v>
+        <v>4.9280752625640821E-3</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  :"buildings_space_heater_solar_thermal-buildings_useful_demand_for_space_heating_after_insulation@useable_heat": 0.00493020409450131</v>
+        <v xml:space="preserve">  :"buildings_space_heater_solar_thermal-buildings_useful_demand_for_space_heating_after_insulation@useable_heat": 0.00492807526256408</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -6884,14 +7039,14 @@
       </c>
       <c r="B26">
         <f>Analyse!N25</f>
-        <v>1.1096098174010624E-2</v>
+        <v>1.1091306946767561E-2</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  :"buildings_space_heater_wood_pellets-buildings_useful_demand_for_space_heating_after_insulation@useable_heat": 0.0110960981740106</v>
+        <v xml:space="preserve">  :"buildings_space_heater_wood_pellets-buildings_useful_demand_for_space_heating_after_insulation@useable_heat": 0.0110913069467676</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -6977,14 +7132,14 @@
       </c>
       <c r="B33">
         <f>Analyse!M29</f>
-        <v>10.964807391731453</v>
+        <v>11.219970272496331</v>
       </c>
       <c r="C33">
         <v>1000000</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" ref="D33:D36" si="5">"  " &amp;A33 &amp; B33*C33</f>
-        <v xml:space="preserve">  buildings_useful_demand_cooling: 10964807.3917315</v>
+        <v xml:space="preserve">  buildings_useful_demand_cooling: 11219970.2724963</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -6993,14 +7148,14 @@
       </c>
       <c r="B34" s="114">
         <f>Analyse!M46</f>
-        <v>8.8947091733601393</v>
+        <v>9.0678638609121389</v>
       </c>
       <c r="C34">
         <v>1000000</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  buildings_useful_demand_for_appliances: 8894709.17336014</v>
+        <v xml:space="preserve">  buildings_useful_demand_for_appliances: 9067863.86091214</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -7009,14 +7164,14 @@
       </c>
       <c r="B35">
         <f>Analyse!M14</f>
-        <v>24.35478802474735</v>
+        <v>24.365308815889751</v>
       </c>
       <c r="C35">
         <v>1000000</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  buildings_useful_demand_for_space_heating: 24354788.0247473</v>
+        <v xml:space="preserve">  buildings_useful_demand_for_space_heating: 24365308.8158897</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -7025,14 +7180,14 @@
       </c>
       <c r="B36" s="114">
         <f>Analyse!M38</f>
-        <v>1.0087835855139968</v>
+        <v>1.032259066345715</v>
       </c>
       <c r="C36">
         <v>1000000</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  buildings_useful_demand_light: 1008783.585514</v>
+        <v xml:space="preserve">  buildings_useful_demand_light: 1032259.06634571</v>
       </c>
     </row>
   </sheetData>
